--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/10/seed5/result_data_KNN.xlsx
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.08</v>
+        <v>6.371</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.816</v>
+        <v>-21.576</v>
       </c>
       <c r="B12" t="n">
-        <v>6.272</v>
+        <v>6.695</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.694</v>
+        <v>6.532000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.372</v>
+        <v>6.65</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
